--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -384,7 +384,7 @@
 </t>
   </si>
   <si>
-    <t>このEncounterが知られている識別子（複数可）【詳細参照】</t>
+    <t>このEncounterが知られている識別子（複数可）</t>
   </si>
   <si>
     <t>このEncounterが知られている識別子（複数可）。</t>
@@ -405,7 +405,7 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+【詳細参照】</t>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.  

--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -354,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -366,7 +366,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -538,7 +538,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）の現状。」(Deai no genjou.)</t>
+    <t>「Encounter（診察、受診、入退院など）の現状。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -945,7 +945,7 @@
     <t>患者以外に関与する人</t>
   </si>
   <si>
-    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
+    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1197,7 +1197,7 @@
     <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
   </si>
   <si>
-    <t>「入院前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
+    <t>「入院前の識別子」</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1210,7 +1210,7 @@
 </t>
   </si>
   <si>
-    <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
+    <t>「入院前に患者がいた場所／組織」</t>
   </si>
   <si>
     <t>患者が入院する前に、どこの場所/組織から来たか。</t>

--- a/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -467,12 +467,8 @@
     <t>関連するEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -2975,10 +2971,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2995,14 +2991,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3024,16 +3020,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3082,7 +3078,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3111,10 +3107,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3137,13 +3133,13 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3194,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3209,24 +3205,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3252,13 +3248,13 @@
         <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3284,14 +3280,14 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3323,24 +3319,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3363,16 +3359,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3422,7 +3418,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3440,7 +3436,7 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3451,10 +3447,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3477,13 +3473,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3534,7 +3530,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3552,7 +3548,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3563,14 +3559,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3592,13 +3588,13 @@
         <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3648,7 +3644,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3666,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3677,14 +3673,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3706,16 +3702,16 @@
         <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3764,7 +3760,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3793,10 +3789,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3822,13 +3818,13 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3854,14 +3850,14 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3878,7 +3874,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -3896,7 +3892,7 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3907,10 +3903,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3933,16 +3929,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3992,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4010,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -4021,10 +4017,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4047,16 +4043,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4082,14 +4078,14 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4106,7 +4102,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>89</v>
@@ -4124,21 +4120,21 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4161,13 +4157,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4218,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4236,7 +4232,7 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4247,10 +4243,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4273,13 +4269,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4330,7 +4326,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4348,7 +4344,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4359,14 +4355,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4388,13 +4384,13 @@
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4444,7 +4440,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4462,7 +4458,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4473,14 +4469,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4502,16 +4498,16 @@
         <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4560,7 +4556,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4589,10 +4585,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4615,16 +4611,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4650,14 +4646,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4674,7 +4670,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4692,7 +4688,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4703,10 +4699,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4729,16 +4725,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4788,7 +4784,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -4806,7 +4802,7 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4817,10 +4813,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4843,16 +4839,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4878,14 +4874,14 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4917,24 +4913,24 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4957,13 +4953,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4990,14 +4986,14 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5014,7 +5010,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5029,24 +5025,24 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5069,13 +5065,13 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5102,14 +5098,14 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5144,25 +5140,25 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5181,16 +5177,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5240,7 +5236,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5255,24 +5251,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5295,13 +5291,13 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5352,7 +5348,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5367,28 +5363,28 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5407,13 +5403,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5464,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5479,10 +5475,10 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5493,10 +5489,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,13 +5515,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5576,7 +5572,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5591,24 +5587,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5631,13 +5627,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5688,7 +5684,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5706,7 +5702,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5717,14 +5713,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5746,13 +5742,13 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5802,7 +5798,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5820,7 +5816,7 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5831,14 +5827,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5860,16 +5856,16 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N36" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5918,7 +5914,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5947,10 +5943,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5973,16 +5969,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6008,13 +6004,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6032,7 +6028,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6047,24 +6043,24 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6087,13 +6083,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6144,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6162,21 +6158,21 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6199,13 +6195,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6256,7 +6252,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6271,24 +6267,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6311,13 +6307,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6368,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6383,24 +6379,24 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6423,16 +6419,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6482,7 +6478,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6497,24 +6493,24 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6537,16 +6533,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6596,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6611,28 +6607,28 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6651,16 +6647,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6689,11 +6685,11 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6725,28 +6721,28 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6765,16 +6761,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="M44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6824,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6839,24 +6835,24 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,13 +6875,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6936,7 +6932,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6954,7 +6950,7 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -6965,10 +6961,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6991,13 +6987,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7048,7 +7044,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7066,7 +7062,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7077,14 +7073,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7106,13 +7102,13 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7162,7 +7158,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7180,7 +7176,7 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7191,14 +7187,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7220,16 +7216,16 @@
         <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7278,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7307,14 +7303,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7333,16 +7329,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7392,7 +7388,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7407,24 +7403,24 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7447,13 +7443,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7483,11 +7479,11 @@
         <v>113</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7504,7 +7500,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7522,7 +7518,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7533,10 +7529,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7559,13 +7555,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7616,7 +7612,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7634,7 +7630,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7645,10 +7641,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7671,16 +7667,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7730,7 +7726,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7748,7 +7744,7 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7759,10 +7755,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7785,16 +7781,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7844,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7862,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7873,10 +7869,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7899,13 +7895,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7956,7 +7952,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7974,7 +7970,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -7985,14 +7981,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8014,13 +8010,13 @@
         <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8070,7 +8066,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8084,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8099,14 +8095,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8128,16 +8124,16 @@
         <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8186,7 +8182,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8215,10 +8211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8241,13 +8237,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8298,7 +8294,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8316,21 +8312,21 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8353,13 +8349,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8410,7 +8406,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8428,7 +8424,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8439,10 +8435,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8465,13 +8461,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8501,11 +8497,11 @@
         <v>113</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8540,21 +8536,21 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8577,13 +8573,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8610,14 +8606,14 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8652,21 +8648,21 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8689,19 +8685,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8726,14 +8722,14 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8768,21 +8764,21 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8805,13 +8801,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8841,11 +8837,11 @@
         <v>113</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8880,21 +8876,21 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8917,13 +8913,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8953,11 +8949,11 @@
         <v>113</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
       </c>
@@ -8974,7 +8970,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8992,21 +8988,21 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9029,13 +9025,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9086,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9104,21 +9100,21 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9141,13 +9137,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9174,14 +9170,14 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9198,7 +9194,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9216,21 +9212,21 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9253,16 +9249,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9312,7 +9308,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9330,7 +9326,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9341,10 +9337,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9367,13 +9363,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9424,7 +9420,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9442,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9453,14 +9449,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9482,13 +9478,13 @@
         <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9538,7 +9534,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9556,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9567,14 +9563,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9596,16 +9592,16 @@
         <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9654,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9683,10 +9679,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9709,13 +9705,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9766,7 +9762,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>89</v>
@@ -9781,24 +9777,24 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9824,13 +9820,13 @@
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9856,14 +9852,14 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -9898,7 +9894,7 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -9909,10 +9905,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9935,16 +9931,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9970,14 +9966,14 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10023,10 +10019,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10049,13 +10045,13 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10106,7 +10102,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10124,7 +10120,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10135,10 +10131,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10161,13 +10157,13 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10218,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10233,24 +10229,24 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10273,16 +10269,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10332,7 +10328,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10347,10 +10343,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
